--- a/datos/datos_demo_unidos.xlsx
+++ b/datos/datos_demo_unidos.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Master\Desktop\Adalab\Pair_programming\promo-d-da-modulo3-sprint2-cassia-anna\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F1CD9C0-0831-4861-B226-9ABCA0F2711C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7A22FC-224F-4179-B4CA-B591B7E19237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{889A60B0-36A4-4B0B-B6EC-F9141CBE0759}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{889A60B0-36A4-4B0B-B6EC-F9141CBE0759}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$74</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="96">
   <si>
     <t>Any</t>
   </si>
@@ -321,12 +324,18 @@
   </si>
   <si>
     <t>Import_Renda_Bruta_â‚¬</t>
+  </si>
+  <si>
+    <t>Codi_Barri_str</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0#"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -356,8 +365,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1917E801-4CC0-49C8-904C-076896E83F7A}">
-  <dimension ref="A1:M74"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -683,16 +694,17 @@
     <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" customWidth="1"/>
+    <col min="6" max="6" width="41.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -706,34 +718,37 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>92</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>93</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2021</v>
       </c>
@@ -746,35 +761,38 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>47228</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>110</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>49.6</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>429</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>952</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>34.299999999999997</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>8.4</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>32909</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2021</v>
       </c>
@@ -787,35 +805,38 @@
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>21827</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>81.599999999999994</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>34.1</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>268</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>639</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>35.6</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>4.4000000000000004</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>46723</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -828,35 +849,38 @@
       <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>14643</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>117.9</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>13.5</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>124</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1081</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>36.799999999999997</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>7.5</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>34954</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -869,35 +893,38 @@
       <c r="D5">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>22131</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>111</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>32.4</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>199</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>683</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>34.9</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>6.5</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>47312</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2021</v>
       </c>
@@ -910,35 +937,38 @@
       <c r="D6">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
         <v>16</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>31262</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>92.9</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>33.6</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>336</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>930</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>36.9</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>52974</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2021</v>
       </c>
@@ -951,35 +981,38 @@
       <c r="D7">
         <v>6</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
         <v>17</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>51319</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>104.2</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>51</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>493</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>1007</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>36.799999999999997</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>4.9000000000000004</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>44655</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -992,35 +1025,38 @@
       <c r="D8">
         <v>7</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
         <v>18</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>44675</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>212</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>113.9</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>211</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>392</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>37.799999999999997</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>3.7</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>55472</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2021</v>
       </c>
@@ -1033,35 +1069,38 @@
       <c r="D9">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
         <v>19</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>41990</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>122.8</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>66.900000000000006</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>342</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>627</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>36.6</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>4</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>60649</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2021</v>
       </c>
@@ -1074,35 +1113,38 @@
       <c r="D10">
         <v>9</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
         <v>20</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>57054</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>134.1</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>65.2</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>426</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>876</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>36.700000000000003</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>4.7</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>55229</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2021</v>
       </c>
@@ -1115,35 +1157,38 @@
       <c r="D11">
         <v>10</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>38053</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>80.400000000000006</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>41.3</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>473</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>921</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>36.4</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>5</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>49318</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2021</v>
       </c>
@@ -1156,35 +1201,38 @@
       <c r="D12">
         <v>11</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>39400</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>458.5</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>38.1</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>86</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>1033</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>35.200000000000003</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>6.3</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>40959</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -1197,35 +1245,38 @@
       <c r="D13">
         <v>12</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>24</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1350</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>1423.7</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>35.5</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>1</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>38</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>36.5</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>8.8000000000000007</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>30740</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2021</v>
       </c>
@@ -1238,35 +1289,38 @@
       <c r="D14">
         <v>13</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
         <v>25</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>30741</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>126.9</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>38.9</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>242</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>789</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>35.4</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>7.7</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>37219</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2021</v>
       </c>
@@ -1279,35 +1333,38 @@
       <c r="D15">
         <v>14</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
         <v>26</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>10084</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>29.7</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>11.5</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>339</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>873</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>35.799999999999997</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>6.5</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>47940</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2021</v>
       </c>
@@ -1320,35 +1377,38 @@
       <c r="D16">
         <v>15</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
         <v>27</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>15842</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>41</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>22.1</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>386</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>717</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>35.4</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>5.6</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>39766</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2021</v>
       </c>
@@ -1361,35 +1421,38 @@
       <c r="D17">
         <v>16</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
         <v>28</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>19292</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>57.2</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>20.8</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>337</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>928</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>36.9</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>5.8</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>39794</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2021</v>
       </c>
@@ -1402,35 +1465,38 @@
       <c r="D18">
         <v>17</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
         <v>29</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>24576</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>41.5</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>25.1</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>593</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>980</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>35.6</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>4.8</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>39045</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2021</v>
       </c>
@@ -1443,35 +1509,38 @@
       <c r="D19">
         <v>18</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
         <v>30</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>43082</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>109.5</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>59.4</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>394</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>726</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>35.5</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>5</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>58376</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2021</v>
       </c>
@@ -1484,35 +1553,38 @@
       <c r="D20">
         <v>19</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
         <v>32</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>45422</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>141</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>64.7</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>322</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>702</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>37.5</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>5.3</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>57293</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2021</v>
       </c>
@@ -1525,35 +1597,38 @@
       <c r="D21">
         <v>20</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
         <v>33</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>23574</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>191.5</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>31.8</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>123</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>741</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>36.200000000000003</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>5.3</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>52723</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2021</v>
       </c>
@@ -1566,35 +1641,38 @@
       <c r="D22">
         <v>21</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1">
+        <v>21</v>
+      </c>
+      <c r="F22" t="s">
         <v>34</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>11581</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>268.5</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>81.7</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>43</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>142</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>39.700000000000003</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>2.7</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>127478</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2021</v>
       </c>
@@ -1607,35 +1685,38 @@
       <c r="D23">
         <v>22</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="1">
+        <v>22</v>
+      </c>
+      <c r="F23" t="s">
         <v>36</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>4697</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>1132.9000000000001</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>242</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>4</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>19</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>39.6</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>2.6</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>54178</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2021</v>
       </c>
@@ -1648,35 +1729,38 @@
       <c r="D24">
         <v>23</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="1">
+        <v>23</v>
+      </c>
+      <c r="F24" t="s">
         <v>37</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>24405</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>304.7</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>95.4</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>80</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>256</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>38.700000000000003</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>2.8</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>127478</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2021</v>
       </c>
@@ -1689,35 +1773,38 @@
       <c r="D25">
         <v>24</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="1">
+        <v>24</v>
+      </c>
+      <c r="F25" t="s">
         <v>38</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>16228</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>78.8</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>42.5</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>206</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>382</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>41.4</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>3.3</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>94533</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2021</v>
       </c>
@@ -1730,35 +1817,38 @@
       <c r="D26">
         <v>25</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="1">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
         <v>39</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>25659</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>223.4</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>82.1</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>115</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>313</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>38.1</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>3.1</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>127478</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2021</v>
       </c>
@@ -1771,35 +1861,38 @@
       <c r="D27">
         <v>26</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="1">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
         <v>40</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>46816</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>166.9</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>95.4</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>280</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>491</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>38.299999999999997</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>3</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>127478</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2021</v>
       </c>
@@ -1812,35 +1905,38 @@
       <c r="D28">
         <v>27</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="1">
+        <v>27</v>
+      </c>
+      <c r="F28" t="s">
         <v>41</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>29629</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>84.8</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>53.1</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>349</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>558</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>36.299999999999997</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>4.2</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>64447</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2021</v>
       </c>
@@ -1853,35 +1949,38 @@
       <c r="D29">
         <v>28</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="1">
+        <v>28</v>
+      </c>
+      <c r="F29" t="s">
         <v>43</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>16142</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>125.1</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>48.2</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>129</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>335</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>36.4</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>5.2</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>50841</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2021</v>
       </c>
@@ -1894,35 +1993,38 @@
       <c r="D30">
         <v>29</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="1">
+        <v>29</v>
+      </c>
+      <c r="F30" t="s">
         <v>44</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>7590</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>35.299999999999997</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>12.4</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>215</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>611</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>35.4</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>4.3</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>50984</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2021</v>
       </c>
@@ -1935,35 +2037,38 @@
       <c r="D31">
         <v>30</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="1">
+        <v>30</v>
+      </c>
+      <c r="F31" t="s">
         <v>45</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>13282</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>64.8</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>19.5</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>205</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>680</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>35.9</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>5.4</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>45540</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2021</v>
       </c>
@@ -1976,35 +2081,38 @@
       <c r="D32">
         <v>31</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="1">
+        <v>31</v>
+      </c>
+      <c r="F32" t="s">
         <v>46</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>49492</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>132.1</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>84</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>375</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>589</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>35.6</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>4.8</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>47776</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2021</v>
       </c>
@@ -2017,35 +2125,38 @@
       <c r="D33">
         <v>32</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="1">
+        <v>32</v>
+      </c>
+      <c r="F33" t="s">
         <v>47</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>34932</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>65.099999999999994</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>38.5</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>537</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>907</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>36.299999999999997</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>4.9000000000000004</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>54491</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2021</v>
       </c>
@@ -2058,35 +2169,38 @@
       <c r="D34">
         <v>33</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="1">
+        <v>33</v>
+      </c>
+      <c r="F34" t="s">
         <v>49</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>25601</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>56.2</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>23.7</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>455</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>1079</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>37.299999999999997</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>5.2</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>53068</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2021</v>
       </c>
@@ -2099,35 +2213,38 @@
       <c r="D35">
         <v>34</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="1">
+        <v>34</v>
+      </c>
+      <c r="F35" t="s">
         <v>50</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>9233</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>38.4</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>14.3</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>240</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>645</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>34.6</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>5.2</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>46842</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2021</v>
       </c>
@@ -2140,35 +2257,38 @@
       <c r="D36">
         <v>35</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="1">
+        <v>35</v>
+      </c>
+      <c r="F36" t="s">
         <v>51</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>36939</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>130.9</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>52</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>282</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>710</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>35.9</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>5.7</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>42549</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2021</v>
       </c>
@@ -2181,35 +2301,38 @@
       <c r="D37">
         <v>36</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="1">
+        <v>36</v>
+      </c>
+      <c r="F37" t="s">
         <v>52</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>9458</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>65.7</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>38.799999999999997</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>144</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>244</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>36.5</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>7</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>63971</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2021</v>
       </c>
@@ -2222,35 +2345,38 @@
       <c r="D38">
         <v>37</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="1">
+        <v>37</v>
+      </c>
+      <c r="F38" t="s">
         <v>53</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>32444</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>94</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>39.4</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>345</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>822</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>34.299999999999997</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>6.7</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>33775</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2021</v>
       </c>
@@ -2263,35 +2389,38 @@
       <c r="D39">
         <v>38</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="1">
+        <v>38</v>
+      </c>
+      <c r="F39" t="s">
         <v>54</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>11926</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>33.799999999999997</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>16.899999999999999</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>353</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>707</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>34.1</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>5.9</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>37733</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2021</v>
       </c>
@@ -2304,35 +2433,38 @@
       <c r="D40">
         <v>39</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="1">
+        <v>39</v>
+      </c>
+      <c r="F40" t="s">
         <v>55</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>7249</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>168.1</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>16.899999999999999</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>43</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>430</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>34.200000000000003</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>6.3</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>48731</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>2021</v>
       </c>
@@ -2345,35 +2477,38 @@
       <c r="D41">
         <v>40</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="1">
+        <v>40</v>
+      </c>
+      <c r="F41" t="s">
         <v>56</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>5071</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>205.5</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>11.4</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>25</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>447</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>43.7</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>6.6</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>41420</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2021</v>
       </c>
@@ -2386,35 +2521,38 @@
       <c r="D42">
         <v>41</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="1">
+        <v>41</v>
+      </c>
+      <c r="F42" t="s">
         <v>57</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>5882</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>74.5</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>7.2</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>79</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>813</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>45</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>6.3</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>65747</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2021</v>
       </c>
@@ -2427,35 +2565,38 @@
       <c r="D43">
         <v>42</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="1">
+        <v>42</v>
+      </c>
+      <c r="F43" t="s">
         <v>58</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>689</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>17.8</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>6.1</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>39</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>114</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>39.1</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>3.3</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>43792</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2021</v>
       </c>
@@ -2468,35 +2609,38 @@
       <c r="D44">
         <v>43</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="1">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
         <v>59</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>27707</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>307</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>63.2</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>90</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>439</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>35.299999999999997</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>6.9</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>45031</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2021</v>
       </c>
@@ -2509,35 +2653,38 @@
       <c r="D45">
         <v>44</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="1">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
         <v>61</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>25674</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>56.4</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>29.3</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>455</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>875</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>36.1</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>7</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>40650</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2021</v>
       </c>
@@ -2550,35 +2697,38 @@
       <c r="D46">
         <v>45</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="1">
+        <v>45</v>
+      </c>
+      <c r="F46" t="s">
         <v>62</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>27418</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>83.7</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>35.700000000000003</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>328</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>768</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>35.200000000000003</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>6.1</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>38795</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>2021</v>
       </c>
@@ -2591,35 +2741,38 @@
       <c r="D47">
         <v>46</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="1">
+        <v>46</v>
+      </c>
+      <c r="F47" t="s">
         <v>63</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>16025</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>35.4</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>13.3</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>452</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>1204</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>33.5</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>6.7</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>34894</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>2021</v>
       </c>
@@ -2632,35 +2785,38 @@
       <c r="D48">
         <v>47</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="1">
+        <v>47</v>
+      </c>
+      <c r="F48" t="s">
         <v>64</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>2204</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>11.9</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>6.1</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>186</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>359</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>34.299999999999997</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>7.1</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>23756</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>2021</v>
       </c>
@@ -2673,35 +2829,38 @@
       <c r="D49">
         <v>48</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="1">
+        <v>48</v>
+      </c>
+      <c r="F49" t="s">
         <v>65</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>15189</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>61.2</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>22</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>248</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>689</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>35.4</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>9</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>49049</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>2021</v>
       </c>
@@ -2714,35 +2873,38 @@
       <c r="D50">
         <v>49</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="1">
+        <v>49</v>
+      </c>
+      <c r="F50" t="s">
         <v>66</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>6797</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>79</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>11</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>86</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>620</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>36.799999999999997</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>9.9</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>42262</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>2021</v>
       </c>
@@ -2755,35 +2917,38 @@
       <c r="D51">
         <v>50</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="1">
+        <v>50</v>
+      </c>
+      <c r="F51" t="s">
         <v>67</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>16373</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>64.3</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>18.2</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>255</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>897</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>32.700000000000003</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>7.9</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>31004</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>2021</v>
       </c>
@@ -2796,35 +2961,38 @@
       <c r="D52">
         <v>51</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="1">
+        <v>51</v>
+      </c>
+      <c r="F52" t="s">
         <v>68</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>12727</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>23.7</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>14.2</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>537</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>894</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>34.1</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>7.9</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>31039</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>2021</v>
       </c>
@@ -2837,35 +3005,38 @@
       <c r="D53">
         <v>52</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="1">
+        <v>52</v>
+      </c>
+      <c r="F53" t="s">
         <v>69</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>26669</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>59.1</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>27.1</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>451</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>985</v>
       </c>
-      <c r="K53">
+      <c r="L53">
         <v>34.200000000000003</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>7.5</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>32898</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>2021</v>
       </c>
@@ -2878,35 +3049,38 @@
       <c r="D54">
         <v>53</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="1">
+        <v>53</v>
+      </c>
+      <c r="F54" t="s">
         <v>70</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>7507</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>57.7</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>12.6</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>130</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>598</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <v>33.299999999999997</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>11.4</v>
       </c>
-      <c r="M54">
+      <c r="N54">
         <v>24760</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>2021</v>
       </c>
@@ -2919,35 +3093,38 @@
       <c r="D55">
         <v>54</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="1">
+        <v>54</v>
+      </c>
+      <c r="F55" t="s">
         <v>71</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>2890</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>174.2</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>21.2</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>17</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>136</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <v>34.200000000000003</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>8</v>
       </c>
-      <c r="M55">
+      <c r="N55">
         <v>31035</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>2021</v>
       </c>
@@ -2960,35 +3137,38 @@
       <c r="D56">
         <v>55</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="1">
+        <v>55</v>
+      </c>
+      <c r="F56" t="s">
         <v>72</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>11026</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>37.700000000000003</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>15.1</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>293</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>729</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <v>30.9</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>11.8</v>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>24124</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>2021</v>
       </c>
@@ -3001,35 +3181,38 @@
       <c r="D57">
         <v>56</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="1">
+        <v>56</v>
+      </c>
+      <c r="F57" t="s">
         <v>73</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>1384</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>61.4</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>6.8</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>23</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>204</v>
       </c>
-      <c r="K57">
+      <c r="L57">
         <v>42.7</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>10.7</v>
       </c>
-      <c r="M57">
+      <c r="N57">
         <v>30011</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>2021</v>
       </c>
@@ -3042,35 +3225,38 @@
       <c r="D58">
         <v>57</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="1">
+        <v>57</v>
+      </c>
+      <c r="F58" t="s">
         <v>75</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>10364</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>80.8</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>12.7</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>128</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>817</v>
       </c>
-      <c r="K58">
+      <c r="L58">
         <v>32.299999999999997</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>11</v>
       </c>
-      <c r="M58">
+      <c r="N58">
         <v>27621</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>2021</v>
       </c>
@@ -3083,35 +3269,38 @@
       <c r="D59">
         <v>58</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="1">
+        <v>58</v>
+      </c>
+      <c r="F59" t="s">
         <v>76</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>2645</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>23</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>3.9</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>115</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>673</v>
       </c>
-      <c r="K59">
+      <c r="L59">
         <v>32.799999999999997</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>6</v>
       </c>
-      <c r="M59">
+      <c r="N59">
         <v>29486</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>2021</v>
       </c>
@@ -3124,35 +3313,38 @@
       <c r="D60">
         <v>59</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="1">
+        <v>59</v>
+      </c>
+      <c r="F60" t="s">
         <v>77</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>13582</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>186.8</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>17.8</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>73</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>763</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <v>34.799999999999997</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <v>6.6</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>63868</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>2021</v>
       </c>
@@ -3165,35 +3357,38 @@
       <c r="D61">
         <v>60</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="1">
+        <v>60</v>
+      </c>
+      <c r="F61" t="s">
         <v>74</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>57954</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>186.7</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>76.5</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>310</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>758</v>
       </c>
-      <c r="K61">
+      <c r="L61">
         <v>35.799999999999997</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>6.7</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>50019</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>2021</v>
       </c>
@@ -3206,35 +3401,38 @@
       <c r="D62">
         <v>61</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="1">
+        <v>61</v>
+      </c>
+      <c r="F62" t="s">
         <v>78</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>29351</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>98.6</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>38.1</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>298</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>770</v>
       </c>
-      <c r="K62">
+      <c r="L62">
         <v>35.9</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <v>5.7</v>
       </c>
-      <c r="M62">
+      <c r="N62">
         <v>44790</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>2021</v>
       </c>
@@ -3247,35 +3445,38 @@
       <c r="D63">
         <v>62</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="1">
+        <v>62</v>
+      </c>
+      <c r="F63" t="s">
         <v>79</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>14420</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>40.9</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>19.100000000000001</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>352</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>753</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <v>36.200000000000003</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <v>5.5</v>
       </c>
-      <c r="M63">
+      <c r="N63">
         <v>42371</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>2021</v>
       </c>
@@ -3288,35 +3489,38 @@
       <c r="D64">
         <v>63</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="1">
+        <v>63</v>
+      </c>
+      <c r="F64" t="s">
         <v>80</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>22091</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>42.4</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>22.4</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>521</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>984</v>
       </c>
-      <c r="K64">
+      <c r="L64">
         <v>36.6</v>
       </c>
-      <c r="L64">
+      <c r="M64">
         <v>5.7</v>
       </c>
-      <c r="M64">
+      <c r="N64">
         <v>46550</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>2021</v>
       </c>
@@ -3329,35 +3533,38 @@
       <c r="D65">
         <v>64</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="1">
+        <v>64</v>
+      </c>
+      <c r="F65" t="s">
         <v>82</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>38360</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>74.099999999999994</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>42.9</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>518</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>894</v>
       </c>
-      <c r="K65">
+      <c r="L65">
         <v>36.1</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <v>5.9</v>
       </c>
-      <c r="M65">
+      <c r="N65">
         <v>39753</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>2021</v>
       </c>
@@ -3370,35 +3577,38 @@
       <c r="D66">
         <v>65</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="1">
+        <v>65</v>
+      </c>
+      <c r="F66" t="s">
         <v>83</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>26520</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>69.7</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>23.4</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>381</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>1131</v>
       </c>
-      <c r="K66">
+      <c r="L66">
         <v>36</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <v>6.1</v>
       </c>
-      <c r="M66">
+      <c r="N66">
         <v>49463</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>2021</v>
       </c>
@@ -3411,35 +3621,38 @@
       <c r="D67">
         <v>66</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="1">
+        <v>66</v>
+      </c>
+      <c r="F67" t="s">
         <v>84</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>15603</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>112.2</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>22.3</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>139</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>699</v>
       </c>
-      <c r="K67">
+      <c r="L67">
         <v>34.1</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>5</v>
       </c>
-      <c r="M67">
+      <c r="N67">
         <v>40495</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>2021</v>
       </c>
@@ -3452,35 +3665,38 @@
       <c r="D68">
         <v>67</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="1">
+        <v>67</v>
+      </c>
+      <c r="F68" t="s">
         <v>85</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>9240</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>92.5</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>24.3</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>100</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>380</v>
       </c>
-      <c r="K68">
+      <c r="L68">
         <v>35.6</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <v>5.3</v>
       </c>
-      <c r="M68">
+      <c r="N68">
         <v>58627</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>2021</v>
       </c>
@@ -3493,35 +3709,38 @@
       <c r="D69">
         <v>68</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="1">
+        <v>68</v>
+      </c>
+      <c r="F69" t="s">
         <v>86</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>33976</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>156.69999999999999</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>45</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>217</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>755</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <v>34.700000000000003</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>5</v>
       </c>
-      <c r="M69">
+      <c r="N69">
         <v>42447</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>2021</v>
       </c>
@@ -3534,35 +3753,38 @@
       <c r="D70">
         <v>69</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="1">
+        <v>69</v>
+      </c>
+      <c r="F70" t="s">
         <v>87</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>13323</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>122.7</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>24</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>109</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>556</v>
       </c>
-      <c r="K70">
+      <c r="L70">
         <v>35.299999999999997</v>
       </c>
-      <c r="L70">
+      <c r="M70">
         <v>6.9</v>
       </c>
-      <c r="M70">
+      <c r="N70">
         <v>51163</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>2021</v>
       </c>
@@ -3575,35 +3797,38 @@
       <c r="D71">
         <v>70</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="1">
+        <v>70</v>
+      </c>
+      <c r="F71" t="s">
         <v>88</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>25657</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>120.9</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>28.1</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>212</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>913</v>
       </c>
-      <c r="K71">
+      <c r="L71">
         <v>33.6</v>
       </c>
-      <c r="L71">
+      <c r="M71">
         <v>7.7</v>
       </c>
-      <c r="M71">
+      <c r="N71">
         <v>37055</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>2021</v>
       </c>
@@ -3616,35 +3841,38 @@
       <c r="D72">
         <v>71</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="1">
+        <v>71</v>
+      </c>
+      <c r="F72" t="s">
         <v>89</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>20949</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>108.6</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>15.3</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>193</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>1368</v>
       </c>
-      <c r="K72">
+      <c r="L72">
         <v>35</v>
       </c>
-      <c r="L72">
+      <c r="M72">
         <v>6.2</v>
       </c>
-      <c r="M72">
+      <c r="N72">
         <v>51678</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>2021</v>
       </c>
@@ -3657,35 +3885,38 @@
       <c r="D73">
         <v>72</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="1">
+        <v>72</v>
+      </c>
+      <c r="F73" t="s">
         <v>90</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>26032</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>73.400000000000006</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>23.4</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>355</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>1111</v>
       </c>
-      <c r="K73">
+      <c r="L73">
         <v>36.6</v>
       </c>
-      <c r="L73">
+      <c r="M73">
         <v>7.2</v>
       </c>
-      <c r="M73">
+      <c r="N73">
         <v>46697</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>2021</v>
       </c>
@@ -3698,35 +3929,39 @@
       <c r="D74">
         <v>73</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="1">
+        <v>73</v>
+      </c>
+      <c r="F74" t="s">
         <v>91</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>28585</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>113</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>40</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>253</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>714</v>
       </c>
-      <c r="K74">
+      <c r="L74">
         <v>35.299999999999997</v>
       </c>
-      <c r="L74">
+      <c r="M74">
         <v>7.4</v>
       </c>
-      <c r="M74">
+      <c r="N74">
         <v>41698</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>